--- a/res/results.xlsx
+++ b/res/results.xlsx
@@ -15,6 +15,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
   <si>
     <t>Classe</t>
   </si>
@@ -39,21 +48,12 @@
   <si>
     <t>Error (Fo)</t>
   </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,12 +94,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -122,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -134,12 +120,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,52 +428,53 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="E1" t="s">
         <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>40</v>
       </c>
       <c r="C2" s="3">
-        <v>1378</v>
-      </c>
-      <c r="D2" s="2">
+        <v>1144</v>
+      </c>
+      <c r="D2" s="3">
         <v>1435</v>
       </c>
       <c r="E2" s="2">
@@ -504,24 +485,24 @@
       </c>
       <c r="G2" s="4">
         <f>((C2-F2)/F2)</f>
-        <v>0.38353413654618473</v>
+        <v>0.14859437751004015</v>
       </c>
       <c r="H2" s="4">
         <f>((C2-E2)/E2)</f>
-        <v>0.38353413654618473</v>
+        <v>0.14859437751004015</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>60</v>
       </c>
       <c r="C3" s="3">
-        <v>1875</v>
-      </c>
-      <c r="D3" s="2">
+        <v>1568</v>
+      </c>
+      <c r="D3" s="3">
         <v>1989</v>
       </c>
       <c r="E3" s="2">
@@ -532,24 +513,24 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G25" si="0">((C3-F3)/F3)</f>
-        <v>0.4269406392694064</v>
+        <v>0.19330289193302891</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H21" si="1">((C3-E3)/E3)</f>
-        <v>0.4269406392694064</v>
+        <v>0.19330289193302891</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>80</v>
       </c>
       <c r="C4" s="3">
-        <v>2153</v>
-      </c>
-      <c r="D4" s="2">
+        <v>1920</v>
+      </c>
+      <c r="D4" s="3">
         <v>2546</v>
       </c>
       <c r="E4" s="2">
@@ -560,24 +541,24 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>0.55451263537906137</v>
+        <v>0.38628158844765342</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>0.55563583815028905</v>
+        <v>0.38728323699421963</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
       </c>
       <c r="C5" s="3">
-        <v>2373</v>
-      </c>
-      <c r="D5" s="2">
+        <v>2203</v>
+      </c>
+      <c r="D5" s="3">
         <v>2412</v>
       </c>
       <c r="E5" s="2">
@@ -588,24 +569,24 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>0.56737120211360637</v>
+        <v>0.45508586525759576</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>0.56737120211360637</v>
+        <v>0.45508586525759576</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
         <v>200</v>
       </c>
       <c r="C6" s="3">
-        <v>3054</v>
-      </c>
-      <c r="D6" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D6" s="3">
         <v>3324</v>
       </c>
       <c r="E6" s="2"/>
@@ -614,21 +595,21 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0.68264462809917359</v>
+        <v>0.76308539944903586</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3">
         <v>300</v>
       </c>
       <c r="C7" s="3">
-        <v>4471</v>
-      </c>
-      <c r="D7" s="2">
+        <v>3811</v>
+      </c>
+      <c r="D7" s="3">
         <v>4992</v>
       </c>
       <c r="E7" s="2"/>
@@ -637,21 +618,21 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>1.2366183091545773</v>
+        <v>0.90645322661330663</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
         <v>400</v>
       </c>
       <c r="C8" s="3">
-        <v>5889</v>
-      </c>
-      <c r="D8" s="2">
+        <v>4816</v>
+      </c>
+      <c r="D8" s="3">
         <v>6548</v>
       </c>
       <c r="E8" s="2"/>
@@ -660,21 +641,21 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>1.5318142734307825</v>
+        <v>1.0705073086844368</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>500</v>
       </c>
       <c r="C9" s="3">
-        <v>6023</v>
-      </c>
-      <c r="D9" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D9" s="3">
         <v>8056</v>
       </c>
       <c r="E9" s="2"/>
@@ -683,21 +664,21 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>1.5095833333333333</v>
+        <v>1.2291666666666667</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6">
         <v>40</v>
       </c>
       <c r="C10" s="6">
-        <v>14412</v>
-      </c>
-      <c r="D10" s="5">
+        <v>11296</v>
+      </c>
+      <c r="D10" s="6">
         <v>15645</v>
       </c>
       <c r="E10" s="5">
@@ -708,24 +689,24 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>0.33741648106904232</v>
-      </c>
-      <c r="H10" s="7">
+        <v>4.8255382331106163E-2</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>0.33741648106904232</v>
+        <v>4.8255382331106163E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6">
         <v>60</v>
       </c>
       <c r="C11" s="6">
-        <v>21692</v>
-      </c>
-      <c r="D11" s="5">
+        <v>18159</v>
+      </c>
+      <c r="D11" s="6">
         <v>23564</v>
       </c>
       <c r="E11" s="5">
@@ -736,24 +717,24 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>0.51692307692307693</v>
-      </c>
-      <c r="H11" s="7">
+        <v>0.26986013986013985</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>0.52374262433267771</v>
+        <v>0.27556898005057601</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6">
         <v>80</v>
       </c>
       <c r="C12" s="6">
-        <v>23395</v>
-      </c>
-      <c r="D12" s="5">
+        <v>20612</v>
+      </c>
+      <c r="D12" s="6">
         <v>25696</v>
       </c>
       <c r="E12" s="5">
@@ -764,24 +745,24 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.59257998638529608</v>
-      </c>
-      <c r="H12" s="7">
+        <v>0.40313138189244385</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0.61523059928196633</v>
+        <v>0.42308754487710576</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6">
         <v>100</v>
       </c>
       <c r="C13" s="6">
-        <v>22913</v>
-      </c>
-      <c r="D13" s="5">
+        <v>22545</v>
+      </c>
+      <c r="D13" s="6">
         <v>25325</v>
       </c>
       <c r="E13" s="5">
@@ -792,24 +773,24 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0.69499926024559844</v>
-      </c>
-      <c r="H13" s="7">
+        <v>0.66777629826897467</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>0.54389865912000535</v>
+        <v>0.51910248635536693</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B14" s="6">
         <v>200</v>
       </c>
       <c r="C14" s="6">
-        <v>30252</v>
-      </c>
-      <c r="D14" s="5">
+        <v>29697</v>
+      </c>
+      <c r="D14" s="6">
         <v>31542</v>
       </c>
       <c r="E14" s="5"/>
@@ -818,21 +799,21 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0.96658649158161603</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>0.93050770330884747</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6">
         <v>300</v>
       </c>
       <c r="C15" s="6">
-        <v>45985</v>
-      </c>
-      <c r="D15" s="5">
+        <v>39056</v>
+      </c>
+      <c r="D15" s="6">
         <v>48596</v>
       </c>
       <c r="E15" s="5"/>
@@ -841,21 +822,21 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>1.2456902866630855</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>0.90731064120720806</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B16" s="6">
         <v>400</v>
       </c>
       <c r="C16" s="6">
-        <v>40797</v>
-      </c>
-      <c r="D16" s="5">
+        <v>42765</v>
+      </c>
+      <c r="D16" s="6">
         <v>43569</v>
       </c>
       <c r="E16" s="5"/>
@@ -864,21 +845,21 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>1.0583753784056509</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>1.1576690211907164</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
       </c>
       <c r="C17" s="6">
-        <v>55968</v>
-      </c>
-      <c r="D17" s="5">
+        <v>50734</v>
+      </c>
+      <c r="D17" s="6">
         <v>60365</v>
       </c>
       <c r="E17" s="5"/>
@@ -887,21 +868,21 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>1.4637055949289079</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>1.2333054540652375</v>
+      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" s="9">
         <v>40</v>
       </c>
       <c r="C18" s="9">
-        <v>5287</v>
-      </c>
-      <c r="D18" s="8">
+        <v>4815</v>
+      </c>
+      <c r="D18" s="9">
         <v>5532</v>
       </c>
       <c r="E18" s="8">
@@ -912,24 +893,24 @@
       </c>
       <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v>0.12633148700468683</v>
-      </c>
-      <c r="H18" s="10">
+        <v>2.5777588410737112E-2</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>0.12633148700468683</v>
+        <v>2.5777588410737112E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="9">
         <v>60</v>
       </c>
       <c r="C19" s="9">
-        <v>8685</v>
-      </c>
-      <c r="D19" s="8">
+        <v>7458</v>
+      </c>
+      <c r="D19" s="9">
         <v>9236</v>
       </c>
       <c r="E19" s="8">
@@ -940,24 +921,24 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" si="0"/>
-        <v>0.39361360718870347</v>
-      </c>
-      <c r="H19" s="10">
+        <v>0.19672657252888318</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>0.41911764705882354</v>
+        <v>0.21862745098039216</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9">
         <v>80</v>
       </c>
       <c r="C20" s="9">
-        <v>8352</v>
-      </c>
-      <c r="D20" s="8">
+        <v>10514</v>
+      </c>
+      <c r="D20" s="9">
         <v>9103</v>
       </c>
       <c r="E20" s="8">
@@ -968,24 +949,24 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="H20" s="10">
+        <v>0.6225308641975309</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>0.32172812153821806</v>
+        <v>0.663870865643298</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21" s="9">
         <v>100</v>
       </c>
       <c r="C21" s="9">
-        <v>11718</v>
-      </c>
-      <c r="D21" s="8">
+        <v>11295</v>
+      </c>
+      <c r="D21" s="9">
         <v>14523</v>
       </c>
       <c r="E21" s="8">
@@ -996,24 +977,24 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" si="0"/>
-        <v>0.60674619498148907</v>
-      </c>
-      <c r="H21" s="10">
+        <v>0.54874537227478404</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>0.70592517105837826</v>
+        <v>0.6443441548988208</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="9">
         <v>200</v>
       </c>
       <c r="C22" s="9">
-        <v>18187</v>
-      </c>
-      <c r="D22" s="8">
+        <v>18736</v>
+      </c>
+      <c r="D22" s="9">
         <v>20653</v>
       </c>
       <c r="E22" s="8"/>
@@ -1022,21 +1003,21 @@
       </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
-        <v>0.76692898086077921</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>0.8202662003303216</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B23" s="9">
         <v>300</v>
       </c>
       <c r="C23" s="9">
-        <v>28526</v>
-      </c>
-      <c r="D23" s="8">
+        <v>25760</v>
+      </c>
+      <c r="D23" s="9">
         <v>32653</v>
       </c>
       <c r="E23" s="8"/>
@@ -1045,21 +1026,21 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" si="0"/>
-        <v>0.8618889106455192</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>0.68135239214150511</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B24" s="9">
         <v>400</v>
       </c>
       <c r="C24" s="9">
-        <v>37542</v>
-      </c>
-      <c r="D24" s="8">
+        <v>30147</v>
+      </c>
+      <c r="D24" s="9">
         <v>43562</v>
       </c>
       <c r="E24" s="8"/>
@@ -1068,21 +1049,21 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="0"/>
-        <v>1.0931088314005353</v>
-      </c>
-      <c r="H24" s="10"/>
+        <v>0.68080954504906332</v>
+      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B25" s="9">
         <v>500</v>
       </c>
       <c r="C25" s="9">
-        <v>48574</v>
-      </c>
-      <c r="D25" s="8">
+        <v>36335</v>
+      </c>
+      <c r="D25" s="9">
         <v>52363</v>
       </c>
       <c r="E25" s="8"/>
@@ -1091,9 +1072,9 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" si="0"/>
-        <v>1.3544181086714169</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>0.76118462507876494</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
